--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value431.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value431.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.135684128691597</v>
+        <v>1.233599066734314</v>
       </c>
       <c r="B1">
-        <v>1.957394878211727</v>
+        <v>2.616581678390503</v>
       </c>
       <c r="C1">
-        <v>2.137109387442218</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.475755366265514</v>
+        <v>1.716055870056152</v>
       </c>
       <c r="E1">
-        <v>1.257684091471629</v>
+        <v>1.147258520126343</v>
       </c>
     </row>
   </sheetData>
